--- a/Output/June/productivity_TL_valid/productivity_TL_2022-06-01_valid.xlsx
+++ b/Output/June/productivity_TL_valid/productivity_TL_2022-06-01_valid.xlsx
@@ -931,13 +931,13 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="T6">
-        <v>0.05</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="T7">
-        <v>0.05</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1347,10 +1347,10 @@
         <v>6</v>
       </c>
       <c r="S13">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="T13">
-        <v>0.3157894736842105</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1406,10 +1406,10 @@
         <v>6</v>
       </c>
       <c r="S14">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="T14">
-        <v>0.3157894736842105</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -2228,13 +2228,13 @@
         <v>10.33333333333333</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="H4">
-        <v>0.1794871794871795</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2332,13 +2332,13 @@
         <v>10.28333333333333</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="H8">
-        <v>0.1794871794871795</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2563,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.1794871794871795</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.1794871794871795</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2781,7 +2781,7 @@
         <v>57</v>
       </c>
       <c r="D4">
-        <v>0.1794871794871795</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2849,7 +2849,7 @@
         <v>57</v>
       </c>
       <c r="D8">
-        <v>0.1794871794871795</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E8">
         <v>1</v>
